--- a/data/trans_bre/P32B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P32B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,7; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,71; -1,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,61%</t>
         </is>
       </c>
     </row>
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,81; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,21; -0,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,67; 0,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 3,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-67,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-79,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,83%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,15; 0,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; -0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,46; 3,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 593,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 60,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -11,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,97; 177,98</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,46%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-2,26; -0,23</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; -0,59</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; -0,25</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 4,11</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 15,17</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-95,69; 1944,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>200,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-74,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,11%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,06; 3,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,74; -1,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 1,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,79; 1155,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-94,44; -29,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,75; 116,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,93; 11,73</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-76,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 1,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,12; -1,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; -0,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,24; 199,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,95; -46,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,36; -1,93</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,7; 62,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P32B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,87</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-68,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>39,76%</t>
         </is>
       </c>
     </row>
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 0,0</t>
+          <t>-2,43; -0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,71; -1,13</t>
+          <t>-3,48; -0,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 0,0</t>
+          <t>-2,5; 0,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 0,0</t>
+          <t>-0,72; 2,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-1,43</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-4,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-67,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-62,5%</t>
+          <t>-79,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>140,61%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,0</t>
+          <t>-1,08; 1,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,21; -0,52</t>
+          <t>-3,15; 0,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 0,76</t>
+          <t>-4,68; -0,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 3,18</t>
+          <t>-2,65; 2,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 593,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 60,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -11,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,08; 183,36</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,84%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-67,75%</t>
+          <t>-81,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-79,31%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,59</t>
+          <t>-2,26; -0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,14</t>
+          <t>-4,14; -0,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -0,88</t>
+          <t>-2,52; -0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 3,06</t>
+          <t>-1,79; 2,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 593,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,72</t>
+          <t>-100,0; 15,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -11,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-71,97; 177,98</t>
+          <t>-100,0; 889,45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,81</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>200,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-81,82%</t>
+          <t>-74,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>-14,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>78,46%</t>
+          <t>-66,36%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,26; -0,23</t>
+          <t>-0,06; 3,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; -0,59</t>
+          <t>-5,74; -1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,25</t>
+          <t>-2,22; 1,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 4,11</t>
+          <t>-4,25; -0,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,79; 1155,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,17</t>
+          <t>-94,44; -29,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,75; 116,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-95,69; 1944,17</t>
+          <t>-90,6; 1,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>200,61%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-74,67%</t>
+          <t>-76,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-14,78%</t>
+          <t>-51,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-62,11%</t>
+          <t>-32,79%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,87</t>
+          <t>-0,49; 1,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -1,34</t>
+          <t>-3,12; -1,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,8</t>
+          <t>-1,99; -0,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,02</t>
+          <t>-1,88; 0,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 1155,05</t>
+          <t>-48,24; 199,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-94,44; -29,86</t>
+          <t>-89,95; -46,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-65,75; 116,6</t>
+          <t>-75,36; -1,93</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-88,93; 11,73</t>
+          <t>-71,06; 37,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-1,08</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>27,81%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-76,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-51,31%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-20,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 1,15</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; -1,26</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; -0,19</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,47; 0,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-48,24; 199,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-89,95; -46,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-75,36; -1,93</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-61,7; 62,47</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P32B-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Habitat-trans_bre.xlsx
@@ -668,22 +668,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; -0,21</t>
+          <t>-2,79; -0,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,99</t>
+          <t>-3,6; -0,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 0,43</t>
+          <t>-2,46; 0,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,3</t>
+          <t>-0,71; 2,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 244,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,59</t>
+          <t>-1,18; 1,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 0,14</t>
+          <t>-3,13; 0,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -0,88</t>
+          <t>-4,27; -0,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,92</t>
+          <t>-2,53; 3,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 593,47</t>
+          <t>-100,0; 589,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 60,72</t>
+          <t>-100,0; 66,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -11,74</t>
+          <t>-100,0; -9,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,08; 183,36</t>
+          <t>-72,05; 225,97</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; -0,23</t>
+          <t>-2,09; -0,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; -0,59</t>
+          <t>-4,15; -0,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,52; -0,25</t>
+          <t>-2,6; -0,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 2,82</t>
+          <t>-1,56; 2,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,17</t>
+          <t>-100,0; 89,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 889,45</t>
+          <t>-97,31; 840,89</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,87</t>
+          <t>-0,03; 3,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,74; -1,34</t>
+          <t>-5,62; -1,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,8</t>
+          <t>-2,31; 1,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,25; -0,1</t>
+          <t>-4,39; -0,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-37,79; 1155,05</t>
+          <t>-38,14; 1357,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,44; -29,86</t>
+          <t>-92,45; -28,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,75; 116,6</t>
+          <t>-67,82; 97,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-90,6; 1,96</t>
+          <t>-88,9; 3,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,15</t>
+          <t>-0,54; 1,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,12; -1,26</t>
+          <t>-3,25; -1,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,99; -0,19</t>
+          <t>-2,0; -0,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,54</t>
+          <t>-1,8; 0,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,24; 199,37</t>
+          <t>-55,96; 229,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-89,95; -46,64</t>
+          <t>-90,83; -51,14</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-75,36; -1,93</t>
+          <t>-77,36; -6,63</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-71,06; 37,94</t>
+          <t>-69,88; 38,15</t>
         </is>
       </c>
     </row>
